--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1483507.333930091</v>
+        <v>1481213.738473496</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198.9430992003371</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>56.91750123718787</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>112.3581576295187</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.781160222249666</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>91.61745183477039</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>357.5738180516822</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>81.5840324249619</v>
       </c>
       <c r="H7" t="n">
-        <v>109.9022384814636</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>41.41379075544808</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>74.67474272089993</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>1.89717711244712</v>
       </c>
       <c r="H10" t="n">
-        <v>131.6653792309042</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>53.76947475493767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>70.38407275859021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983372</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922705</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>35.88641949135409</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936184</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>80.10107535865887</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>13.74238375877515</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936164</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>230.4433519268047</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336594</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>147.6895341487364</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>126.9263824507421</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2361.386702945269</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>901.822256251568</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4331,7 +4331,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193029</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507746</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764924</v>
+        <v>270.5950217532751</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764924</v>
+        <v>270.5950217532751</v>
       </c>
       <c r="D4" t="n">
-        <v>53.04593830764924</v>
+        <v>270.5950217532751</v>
       </c>
       <c r="E4" t="n">
-        <v>53.04593830764924</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>53.04593830764924</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>53.04593830764924</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>53.04593830764924</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764924</v>
+        <v>673.036065727045</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764924</v>
+        <v>452.2434865835148</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624727</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179767</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>985.1133520179767</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>574.1274472283692</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>159.0549970733657</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.5773008749145</v>
+        <v>443.0505103572864</v>
       </c>
       <c r="C7" t="n">
-        <v>327.6411179470076</v>
+        <v>443.0505103572864</v>
       </c>
       <c r="D7" t="n">
-        <v>177.5244785346719</v>
+        <v>443.0505103572864</v>
       </c>
       <c r="E7" t="n">
-        <v>177.5244785346719</v>
+        <v>295.1374167748933</v>
       </c>
       <c r="F7" t="n">
-        <v>177.5244785346719</v>
+        <v>295.1374167748933</v>
       </c>
       <c r="G7" t="n">
-        <v>177.5244785346719</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.007895746702</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X7" t="n">
-        <v>899.0183448486844</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.2257657051542</v>
+        <v>624.6989751875261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>565.4135772219082</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>150.3411270669047</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4820,7 +4820,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3044.19904094198</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2713.136153598409</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2360.367498328294</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.901740067214</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>981.0661490344795</v>
+        <v>681.6115596545848</v>
       </c>
       <c r="C10" t="n">
-        <v>812.1299661065726</v>
+        <v>512.6753767266779</v>
       </c>
       <c r="D10" t="n">
-        <v>662.0133266942369</v>
+        <v>362.5587373143421</v>
       </c>
       <c r="E10" t="n">
-        <v>514.1002331118437</v>
+        <v>214.645643731949</v>
       </c>
       <c r="F10" t="n">
-        <v>367.2102856139334</v>
+        <v>214.645643731949</v>
       </c>
       <c r="G10" t="n">
-        <v>199.5074489886523</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>1383.507193008249</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>1162.714613864719</v>
+        <v>681.6115596545848</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2325.6047790701</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,31 +5264,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.580456911442</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835348</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711991</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E22" t="n">
-        <v>549.614540988806</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908956</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2410.714175003135</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.112710026076</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026076</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820189</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783229</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.021500885211</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.228921741681</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D25" t="n">
-        <v>489.8360330454435</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E25" t="n">
-        <v>341.9229394630504</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>341.9229394630504</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>174.7268401779303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171284</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892215</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>564.5188827892215</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>416.6057892068284</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,22 +7014,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>385.6451336181095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5284942057738</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143854</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>60.50016306149604</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.12601365260414</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>127.2568112467069</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788669</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.3683537222893</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>145.1398665102905</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345295079</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>60.19363748756501</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>131.6786642641561</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459598</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>55.74112246243945</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9259388694759139</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>40.32043864788577</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264416</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264416</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264416</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264416</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264416</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="F2" t="n">
-        <v>504466.6248062539</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312011</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312015</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312017</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26433,13 +26433,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768908</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26522,46 +26522,46 @@
         <v>-832468.8602578092</v>
       </c>
       <c r="C6" t="n">
-        <v>112644.2448985578</v>
+        <v>112644.2448985573</v>
       </c>
       <c r="D6" t="n">
-        <v>316082.9865106635</v>
+        <v>316082.9865106638</v>
       </c>
       <c r="E6" t="n">
-        <v>67984.48885322253</v>
+        <v>67949.75092778671</v>
       </c>
       <c r="F6" t="n">
-        <v>393396.9506605779</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="G6" t="n">
-        <v>393396.9506605777</v>
+        <v>393362.2127351422</v>
       </c>
       <c r="H6" t="n">
-        <v>393396.9506605776</v>
+        <v>393362.212735142</v>
       </c>
       <c r="I6" t="n">
-        <v>393396.9506605777</v>
+        <v>393362.212735142</v>
       </c>
       <c r="J6" t="n">
-        <v>225791.7728505951</v>
+        <v>225757.0349251595</v>
       </c>
       <c r="K6" t="n">
-        <v>344286.8579545231</v>
+        <v>344252.1200290875</v>
       </c>
       <c r="L6" t="n">
-        <v>393396.9506605779</v>
+        <v>393362.2127351421</v>
       </c>
       <c r="M6" t="n">
-        <v>308341.922725066</v>
+        <v>308307.18479963</v>
       </c>
       <c r="N6" t="n">
-        <v>393396.9506605777</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="O6" t="n">
-        <v>393396.9506605777</v>
+        <v>393362.212735142</v>
       </c>
       <c r="P6" t="n">
-        <v>393396.9506605777</v>
+        <v>393362.2127351419</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183.7907424631435</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>297.7655403834951</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>34.07580501705051</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0154349816509</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>202.9903125525501</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.66412060437142</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>84.44177583406632</v>
       </c>
       <c r="H7" t="n">
-        <v>34.85277643285723</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.1939736318724</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>176.320429238002</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.1286311465811</v>
       </c>
       <c r="H10" t="n">
-        <v>13.08963568341659</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.571301715478522e-13</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.571301715478522e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29730,7 +29730,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,25 +33503,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33734,25 +33734,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578702</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>451.6972626543699</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,25 +37382,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
